--- a/medicine/Enfance/Carole_Tremblay/Carole_Tremblay.xlsx
+++ b/medicine/Enfance/Carole_Tremblay/Carole_Tremblay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carole Tremblay (née à Montréal en 1959) est une écrivaine de romans pour enfants. Elle a  également travaillé comme directrice littéraire aux éditions Imagine, chez Bayard Canada et chez Dominique et compagnie, et elle est aujourd’hui éditrice jeunesse aux éditions de la courte échelle[1]. Elle a aussi écrit quelques romans pour adultes dont Musique dans le sang et La Douce Revanche de madame Thibodeau. Elle a 2 enfants, Gabrielle et Victor, qui sont une de ses sources d'inspiration.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carole Tremblay (née à Montréal en 1959) est une écrivaine de romans pour enfants. Elle a  également travaillé comme directrice littéraire aux éditions Imagine, chez Bayard Canada et chez Dominique et compagnie, et elle est aujourd’hui éditrice jeunesse aux éditions de la courte échelle. Elle a aussi écrit quelques romans pour adultes dont Musique dans le sang et La Douce Revanche de madame Thibodeau. Elle a 2 enfants, Gabrielle et Victor, qui sont une de ses sources d'inspiration.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Douce Revanche de madame Thibodeau, roman pour ados, Gallimard, Paris, 1992, 240 pages (finaliste du Prix 12-17, Brive-Montréal)
 La Nuit de l'Halloween, roman 8-10 ans, Éditions du Boréal, Collection « Boréal Junior », Montréal, 1992, 95 pages.
@@ -614,11 +630,13 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1996 : Palmarès Communication-Jeunesse des livres préférés des jeunes
 2004 : Palmarès Communication-Jeunesse des livres préférés des jeunes
-2022 : Finaliste Prix des libraires du Québec catégorie Québec - Jeunesse [2] pour La guerre des bébés</t>
+2022 : Finaliste Prix des libraires du Québec catégorie Québec - Jeunesse  pour La guerre des bébés</t>
         </is>
       </c>
     </row>
